--- a/P0088/09_FICHAS/N3-FD-General.xlsx
+++ b/P0088/09_FICHAS/N3-FD-General.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28605"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0088\09_FICHAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{122FC6A4-37F6-4797-9FF2-15DC678D8E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED775D64-8F9F-4FF1-8A91-72E503B8859F}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{122FC6A4-37F6-4797-9FF2-15DC678D8E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E72256CF-D383-48E8-97A8-398D8B24B6AB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -234,7 +234,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -247,7 +247,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -532,7 +537,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -602,7 +607,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -624,7 +629,7 @@
       <c r="G2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I2" s="5" t="s">
@@ -645,7 +650,7 @@
       <c r="N2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="11" t="s">
         <v>25</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -701,6 +706,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010097FB7C5121AAD04EA5DBB516CB842770" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ca6bde7a5d319871883c00f261789bac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3277f09b-73d6-4795-b7e6-f63d7d60cc69" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6422850a7e45dad78806fd17bfbce0a" ns2:_="">
     <xsd:import namespace="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
@@ -844,19 +858,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
 </file>